--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:40:39+00:00</t>
+    <t>2021-11-10T19:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.netzwerk-universitaetsmedizin.de/fhir/ValueSet/yes-no-unknown</t>
+    <t>https://www.napkon.de/fhir/ValueSet/yes-no-unknown</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T19:09:31+00:00</t>
+    <t>2021-12-02T17:22:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T17:22:35+00:00</t>
+    <t>2021-12-03T09:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-03T09:19:30+00:00</t>
+    <t>2021-12-03T09:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-03T09:58:56+00:00</t>
+    <t>2021-12-06T20:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -57,19 +57,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-06T20:58:11+00:00</t>
+    <t>2021-12-14T15:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
-  </si>
-  <si>
-    <t>Charité - Universitätsmedizin Berlin</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -251,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -327,44 +318,34 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -386,50 +367,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T15:06:44+00:00</t>
+    <t>2021-12-14T17:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-yes-no-unknown.xlsx
+++ b/ValueSet-yes-no-unknown.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T17:47:04+00:00</t>
+    <t>2021-12-17T12:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
